--- a/va_facility_data_2025-02-20/Hiroshi \"Hershey\" Miyamura VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hiroshi%20%22Hershey%22%20Miyamura%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hiroshi \"Hershey\" Miyamura VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hiroshi%20%22Hershey%22%20Miyamura%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb792f5236f9d475982de08e6ac54fbef"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcc030e4af6eb4f5aa7f0c044961e69f0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb9bbd4c776e742cb865a11ede17cc654"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1fdc39859f9c400fb85d0bc2f250cd94"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R292d2520d8084c1e97c48edc915cad14"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbbd47666e590417cbc6eb73dd422d8a2"/>
   </x:sheets>
 </x:workbook>
 </file>
